--- a/Отчёт/Tests.xlsx
+++ b/Отчёт/Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks\Documents\Прога\16.09\HT_1_23sep\Отчёт\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6EE403-0278-4807-B402-0F503F51D1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E427E0AB-E752-4E37-BFF9-8C6811964E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="85">
   <si>
     <t>№</t>
   </si>
@@ -175,13 +175,127 @@
   </si>
   <si>
     <t>x = 3, y = asd</t>
+  </si>
+  <si>
+    <t>Классы входных данных</t>
+  </si>
+  <si>
+    <t>Классы выходных данных</t>
+  </si>
+  <si>
+    <t>Проверяемая ситуация</t>
+  </si>
+  <si>
+    <t>Т1</t>
+  </si>
+  <si>
+    <t>Т2</t>
+  </si>
+  <si>
+    <t>Т3</t>
+  </si>
+  <si>
+    <t>Т4</t>
+  </si>
+  <si>
+    <t>Т5</t>
+  </si>
+  <si>
+    <t>Т6</t>
+  </si>
+  <si>
+    <t>Т7</t>
+  </si>
+  <si>
+    <t>Т8</t>
+  </si>
+  <si>
+    <t>Т9</t>
+  </si>
+  <si>
+    <t>Результат – ошибка</t>
+  </si>
+  <si>
+    <t>Пустой набор, или не число, или число, не удовлетворяющее типу данных</t>
+  </si>
+  <si>
+    <t>Введены числа, удовлетворяющие типу данных</t>
+  </si>
+  <si>
+    <t>Результат – число (1.1, 1.4)</t>
+  </si>
+  <si>
+    <t>Анализ классов входных и выходных данных для 1 задания</t>
+  </si>
+  <si>
+    <t>Анализ классов входных и выходных данных для 2 задания</t>
+  </si>
+  <si>
+    <t>Т10</t>
+  </si>
+  <si>
+    <t>Т11</t>
+  </si>
+  <si>
+    <t>Т12</t>
+  </si>
+  <si>
+    <t>Т13</t>
+  </si>
+  <si>
+    <t>Т14</t>
+  </si>
+  <si>
+    <t>Т15</t>
+  </si>
+  <si>
+    <t>Проверены граничные точки</t>
+  </si>
+  <si>
+    <t>Проверены точки внутри области</t>
+  </si>
+  <si>
+    <t>Проверены точки вне области</t>
+  </si>
+  <si>
+    <t>Введены числа, удовлетворяющие типу данных и ОДЗ</t>
+  </si>
+  <si>
+    <t>Результат – True</t>
+  </si>
+  <si>
+    <t>Результат – False</t>
+  </si>
+  <si>
+    <t>Проверены целые координаты</t>
+  </si>
+  <si>
+    <t>Проверены дробные координаты</t>
+  </si>
+  <si>
+    <t>Проверены отрицательные координаты</t>
+  </si>
+  <si>
+    <t>Проверены неотрицательные координаты</t>
+  </si>
+  <si>
+    <t>Результат – True (1.2-1.3)</t>
+  </si>
+  <si>
+    <t>Результат – False (1.2-1.3)</t>
+  </si>
+  <si>
+    <t>Проверены целые числа (1.1, 1.4)</t>
+  </si>
+  <si>
+    <t>Проверены дробные числа (1.1, 1.4)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +320,30 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -215,7 +353,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -339,11 +477,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -397,7 +559,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -409,6 +570,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -435,6 +599,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,21 +987,23 @@
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.140625" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.140625" customWidth="1"/>
+    <col min="10" max="18" width="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="38" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -828,8 +1019,38 @@
       <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I2" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>1</v>
       </c>
@@ -845,8 +1066,20 @@
       <c r="E3" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I3" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+    </row>
+    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="27"/>
       <c r="C4" s="10" t="s">
@@ -858,8 +1091,30 @@
       <c r="E4" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I4" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
       <c r="B5" s="28"/>
       <c r="C5" s="11" t="s">
@@ -871,8 +1126,28 @@
       <c r="E5" s="16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I5" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>2</v>
       </c>
@@ -888,8 +1163,26 @@
       <c r="E6" s="17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I6" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
       <c r="B7" s="32"/>
       <c r="C7" s="12" t="s">
@@ -901,8 +1194,26 @@
       <c r="E7" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I7" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="33"/>
       <c r="C8" s="13" t="s">
@@ -914,8 +1225,20 @@
       <c r="E8" s="18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I8" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>3</v>
       </c>
@@ -932,8 +1255,28 @@
       <c r="E9" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I9" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -950,8 +1293,22 @@
       <c r="E10" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I10" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -965,8 +1322,24 @@
         <v>6</v>
       </c>
       <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I11" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -980,8 +1353,30 @@
         <v>6</v>
       </c>
       <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I12" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -996,7 +1391,7 @@
       </c>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -1011,7 +1406,7 @@
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>9</v>
       </c>
@@ -1026,25 +1421,28 @@
       </c>
       <c r="E15" s="14"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="I17" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="24" t="s">
@@ -1052,200 +1450,648 @@
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O18" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="P18" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q18" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="R18" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="S18" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="T18" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="U18" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="V18" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="W18" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="X18" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+    </row>
+    <row r="20" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>3</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>4</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>5</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>6</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>7</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>8</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="22" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>9</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="22" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>10</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>11</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="22" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="41"/>
+      <c r="X29" s="42"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>12</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="22" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>13</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="22" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I31" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>14</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X32" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1253,10 +2099,10 @@
       <c r="A33" s="3">
         <v>15</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -1264,13 +2110,18 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="I19:X19"/>
+    <mergeCell ref="I29:X29"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="I8:R8"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
